--- a/imageCreationExcel/back/112/112_11.xlsx
+++ b/imageCreationExcel/back/112/112_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.67064607949565</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8095488598310894</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.3530425519106681</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_I_brightness28.671_gamma0.81_sharpness0.353.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,30 +537,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.077491834475184</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7979620612318978</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7745500421880684</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_P_contrast1.077_gamma0.798_sharpness0.775.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.8825499515901</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.090500925954157</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.47393455108561</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_S_brightness14.883_contrast1.091_sharpness0.474.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9574162053301949</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9190855722711047</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10.88348800405696</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_1_contrast0.957_sharpness0.919_equalization10.883.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26.76131264551323</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9874057777909223</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8015402988714977</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_P_brightness26.761_contrast0.987_sharpness0.802.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.125630057278751</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9209813236487334</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18.56610467493847</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_contrast1.126_sharpness0.921_equalization18.566.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.177758157803525</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.3114586783798056</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27.84609923459326</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast1.178_sharpness0.311_equalization27.846.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25.45691607393112</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5323717197816975</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8575398164155386</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_brightness25.457_gamma0.532_sharpness0.858.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5701415625856825</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.6612699488695644</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.696025208228334</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_gamma0.57_sharpness0.661_equalization6.696.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.029825359528471</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.061019800952433</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>28.67028168450533</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_C_contrast1.03_gamma1.061_equalization28.67.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9273492347318801</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.143437301032564</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.658991287656725</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_contrast0.927_sharpness0.143_equalization6.659.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.964547010792785</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8921358729046549</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9515457768654488</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_E_brightness9.965_contrast0.892_gamma0.952.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>24.49514492564536</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8541929271058663</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.324717233129081</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_7_brightness24.495_gamma0.854_sharpness0.325.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14.12792119681313</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8396749690888473</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9971402477550886</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_3_brightness14.128_contrast0.84_gamma0.997.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.132150375319413</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.6590471409954611</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>22.09352819949645</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_T_contrast1.132_gamma0.659_equalization22.094.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20.83873105824239</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.5509441287221294</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.04517896969428068</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_8_brightness20.839_gamma0.551_sharpness0.045.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21.7291161040422</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.103372065165275</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.761106679117164</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_0_brightness21.729_contrast1.103_sharpness0.761.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,24 +1200,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9403994554444526</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.005252951150163</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.3923404027704554</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_contrast0.94_gamma1.005_sharpness0.392.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17.28279355815857</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5430202029792528</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.4059203528330796</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_brightness17.283_gamma0.543_sharpness0.406.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1289,34 +1289,34 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>16.99125591422536</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9262739408619282</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5129805997364016</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_8_brightness16.991_contrast0.926_gamma0.513.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26.53893500126212</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5210396624171187</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5836829570271704</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_brightness26.539_gamma0.521_sharpness0.584.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27.50821136985163</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7435365132265147</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.4983682997504425</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_S_brightness27.508_gamma0.744_sharpness0.498.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.125849102025441</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1227404918206374</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>11.66899026363547</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_0_contrast1.126_sharpness0.123_equalization11.669.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.017212423101465</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9260226801863558</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6950444481855814</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_2_contrast1.017_gamma0.926_sharpness0.695.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>28.62364561848115</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9464619287291833</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8198962635200359</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_brightness28.624_contrast0.946_sharpness0.82.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>21.53585316583722</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.060078179199002</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8802701204404184</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_brightness21.536_contrast1.06_sharpness0.88.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8827894142087729</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.6438822559000839</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5904148579159494</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_contrast0.883_gamma0.644_sharpness0.59.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9489346205751136</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5457374274153199</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6.850558908657187</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_0_gamma0.949_sharpness0.546_equalization6.851.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17.96827069596561</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9242810783345834</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.05687838752847475</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_brightness17.968_contrast0.924_sharpness0.057.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7709965271757576</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.3921094686766948</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>21.58240888572039</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_2_gamma0.771_sharpness0.392_equalization21.582.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.041748224731247</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.4512250690697042</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>26.17001041402747</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_T_gamma1.042_sharpness0.451_equalization26.17.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,15 +1797,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>27.79336387725559</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.7572422018542417</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.1135544095275561</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_0_brightness27.793_gamma0.757_sharpness0.114.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,16 +1830,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.007196790496384</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.7204533671824244</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>29.43869369847532</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_P_contrast1.007_gamma0.72_equalization29.439.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.072664122591183</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7321482846310299</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.9044515460870153</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_contrast1.073_gamma0.732_sharpness0.904.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23.16257948763522</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8273456975888461</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.3439148715518076</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_0_brightness23.163_gamma0.827_sharpness0.344.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28.76877963076934</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.058377461537154</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.4815262703998012</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_brightness28.769_contrast1.058_sharpness0.482.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8039479816262188</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5863649278604527</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6357212524567013</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_contrast0.804_gamma0.586_sharpness0.636.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.620406522760922</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9128236771045404</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.952138143704693</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_I_brightness1.62_contrast0.913_gamma0.952.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28.70057951104127</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7033477839999045</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.4634607141001584</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_9_brightness28.701_gamma0.703_sharpness0.463.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,30 +2133,30 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.087355062488691</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6955691232456855</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.171862143886674</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_T_contrast1.087_sharpness0.696_equalization6.172.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1.087926841511119</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9920479961449911</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>19.58712550499002</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_9_contrast1.088_sharpness0.992_equalization19.587.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,30 +2217,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20.15711547675554</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7155272435254564</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.03799270868403744</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_C_brightness20.157_gamma0.716_sharpness0.038.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9764180709677295</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9763535719458269</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.6830451611223747</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_P_brightness0.976_contrast0.976_gamma0.683.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24.06853562471937</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7800712287917665</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.4067320141256284</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_0_brightness24.069_gamma0.78_sharpness0.407.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>19.33256318906185</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.062656863249706</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.8589066008642871</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_1_brightness19.333_contrast1.063_gamma0.859.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.103766265724731</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6946767954887756</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.86137780186012</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_2_contrast1.104_sharpness0.695_equalization15.861.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9709126486078021</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1666871108354955</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>26.20027727912974</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_P_contrast0.971_sharpness0.167_equalization26.2.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8660511320147086</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.054816395653603</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.3798063185277569</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_contrast0.866_gamma1.055_sharpness0.38.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
